--- a/PHONON1D/SCRIPTS_CEES/List.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="293">
   <si>
     <t>mx_scat_dp</t>
   </si>
@@ -916,6 +916,12 @@
   </si>
   <si>
     <t>BSMOON_012c</t>
+  </si>
+  <si>
+    <t>PSPACE</t>
+  </si>
+  <si>
+    <t>Baseline model</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1040,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="724">
+  <cellStyleXfs count="726">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1519,6 +1525,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1810,7 +1818,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="724">
+  <cellStyles count="726">
     <cellStyle name="Bad" xfId="83" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2172,6 +2180,7 @@
     <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="254" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -2533,6 +2542,7 @@
     <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="483" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2866,10 +2876,10 @@
   <dimension ref="A3:AL181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3005,6 +3015,14 @@
       </c>
       <c r="AL3" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38">
+      <c r="C6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:38">

--- a/PHONON1D/SCRIPTS_CEES/List.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/List.xlsx
@@ -1040,7 +1040,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="726">
+  <cellStyleXfs count="730">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1525,6 +1525,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1818,7 +1822,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="726">
+  <cellStyles count="730">
     <cellStyle name="Bad" xfId="83" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2181,6 +2185,8 @@
     <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="254" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -2543,6 +2549,8 @@
     <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="483" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2876,10 +2884,10 @@
   <dimension ref="A3:AL181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12:AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
